--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E22844-5F6E-44C5-9882-4FE44FD6349B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A3074-6CBF-4042-AAB0-A556F23D74CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{189C246E-4387-46BE-9EBB-EAF8C0E938C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{189C246E-4387-46BE-9EBB-EAF8C0E938C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="TOGAF" sheetId="3" r:id="rId2"/>
     <sheet name="Grocery" sheetId="2" r:id="rId3"/>
+    <sheet name="GroceryList" sheetId="4" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Grocery!$A$1:$C$63</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="221">
   <si>
     <t>s1</t>
   </si>
@@ -627,13 +630,88 @@
   </si>
   <si>
     <t>TOGAF 9.2</t>
+  </si>
+  <si>
+    <t>Grocery Item</t>
+  </si>
+  <si>
+    <t>Storage Place</t>
+  </si>
+  <si>
+    <t>Grocery Stock</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>6H</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Necessity</t>
+  </si>
+  <si>
+    <t>Future Earning</t>
+  </si>
+  <si>
+    <t>Earning</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Daily:24H</t>
+  </si>
+  <si>
+    <t>TOGAF</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>S1, S2</t>
+  </si>
+  <si>
+    <t>S5, S6</t>
+  </si>
+  <si>
+    <t>S3, S4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +739,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -670,7 +779,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -693,23 +802,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,37 +1166,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1">
         <v>43850</v>
       </c>
@@ -1644,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A472698-1AC9-472D-81AE-3F88B1BC3913}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1654,420 +1782,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>21</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>11</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>21</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>11</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>21</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>11</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>22</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>22</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>12</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>22</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>12</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>13</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>23</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>13</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>23</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>13</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>14</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>24</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>14</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>24</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>14</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>15</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>25</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>15</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>25</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>15</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>26</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>26</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>6</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>16</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>26</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>6</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>16</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>17</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>27</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>17</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>27</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>17</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>27</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>17</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>28</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>28</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>18</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>28</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>8</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>18</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>19</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>29</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>19</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>29</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>9</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>19</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>29</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>9</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>19</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>20</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>30</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>30</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>10</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>20</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>30</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>10</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>20</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>30</v>
       </c>
     </row>
@@ -2088,17 +2216,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72506FE-1C92-4A2B-9449-0F73D8A7FFB1}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3145,5 +3281,3785 @@
   </sheetData>
   <autoFilter ref="A1:C63" xr:uid="{38C57BCB-D71B-49F1-85F9-F362EDD9D278}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B6E0CA-DDA1-4ED6-BF11-37CA4E089262}">
+  <dimension ref="A1:AD41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="1.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="1.88671875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="1.88671875" style="7" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="1.88671875" style="7" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+    </row>
+    <row r="2" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+    </row>
+    <row r="3" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+    </row>
+    <row r="14" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+    </row>
+    <row r="17" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+    </row>
+    <row r="18" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+    </row>
+    <row r="19" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+    </row>
+    <row r="20" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+    </row>
+    <row r="22" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+    </row>
+    <row r="23" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+    </row>
+    <row r="24" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+    </row>
+    <row r="27" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+    </row>
+    <row r="29" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+    </row>
+    <row r="30" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+    </row>
+    <row r="31" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+    </row>
+    <row r="32" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+    </row>
+    <row r="33" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+    </row>
+    <row r="34" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+    </row>
+    <row r="35" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+    </row>
+    <row r="36" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+    </row>
+    <row r="37" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+    </row>
+    <row r="38" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+    </row>
+    <row r="39" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+    </row>
+    <row r="40" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+    </row>
+    <row r="41" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F8E635-F154-4518-AFB3-2858C784128D}">
+  <dimension ref="A1:Y367"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W1">
+        <v>2000</v>
+      </c>
+      <c r="X1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>43831</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2">
+        <f>SUM(B2:H367)</f>
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>43832</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V3">
+        <f>SUM(H2:M367)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>43833</v>
+      </c>
+      <c r="U4" t="s">
+        <v>203</v>
+      </c>
+      <c r="V4">
+        <f>SUM(N2:S367)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="11">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="11">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="11">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="11">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="11">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="11">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="11">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="11">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="11">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="11">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="11">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="11">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="11">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="11">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="11">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="11">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="11">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="11">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="11">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="11">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="11">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="11">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="11">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="11">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="11">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="11">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="11">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="11">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="11">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="11">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="11">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="11">
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="11">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="11">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="11">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="11">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="11">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="11">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="11">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="11">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="11">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="11">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="11">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="11">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="11">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="11">
+        <v>44031</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="11">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="11">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="11">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="11">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="11">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="11">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="11">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="11">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="11">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="11">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="11">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="11">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="11">
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="11">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="11">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="11">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="11">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="11">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="11">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="11">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="11">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="11">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="11">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="11">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="11">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="11">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="11">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="11">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="11">
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="11">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="11">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="11">
+        <v>44065</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="11">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="11">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="11">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="11">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="11">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="11">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="11">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="11">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="11">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="11">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="11">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="11">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="11">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="11">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="11">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="11">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="11">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="11">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="11">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="11">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="11">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="11">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="11">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="11">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="11">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="11">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="11">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="11">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="11">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="11">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="11">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="11">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="11">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="11">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="11">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="11">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="11">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="11">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="11">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="11">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="11">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="11">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="11">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="11">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="11">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="11">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="11">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="11">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="11">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="11">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="11">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="11">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="11">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="11">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="11">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="11">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="11">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="11">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="11">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="11">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="11">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="11">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="11">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="11">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="11">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="11">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="11">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="11">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="11">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="11">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="11">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="11">
+        <v>44139</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="11">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="11">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="11">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="11">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="11">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="11">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="11">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="11">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="11">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="11">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="11">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="11">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="11">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="11">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="11">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="11">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="11">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="11">
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="11">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="11">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="11">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="11">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="11">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="11">
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="11">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="11">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="11">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="11">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="11">
+        <v>44168</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="11">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="11">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="11">
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="11">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="11">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="11">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="11">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="11">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="11">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="11">
+        <v>44178</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="11">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="11">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="11">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="11">
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="11">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="11">
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="11">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="11">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="11">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="11">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="11">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="11">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="11">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="11">
+        <v>44192</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="11">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="11">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="11">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="11">
+        <v>44196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEB74B0-5923-4B9D-94D1-25B2EC019E42}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>